--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,187 +46,175 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>un</t>
+    <t>pay</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>short</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>bit</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>work</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>3</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>two</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
@@ -235,55 +223,55 @@
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>expansion</t>
   </si>
   <si>
     <t>best</t>
@@ -292,31 +280,31 @@
     <t>friends</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>every</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
+    <t>birthday</t>
   </si>
   <si>
     <t>easy</t>
@@ -338,9 +326,6 @@
   </si>
   <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -701,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -791,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -812,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -820,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -838,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -870,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7631578947368421</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K5">
         <v>0.8518518518518519</v>
@@ -920,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -938,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K6">
         <v>0.85</v>
@@ -970,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K7">
-        <v>0.84375</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1012,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1020,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6935483870967742</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="C8">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D8">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1038,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K8">
-        <v>0.7956989247311828</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1062,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1070,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6857142857142857</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1088,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1112,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1120,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.671875</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1138,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K10">
-        <v>0.6415094339622641</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1162,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6554054054054054</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1188,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K11">
-        <v>0.5724533715925395</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L11">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1212,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>298</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1220,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6551724137931034</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1238,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K12">
-        <v>0.5362318840579711</v>
+        <v>0.5466284074605452</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1262,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1270,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6262135922330098</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1288,31 +1273,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>0.4979253112033195</v>
+        <v>0.5020746887966805</v>
       </c>
       <c r="L13">
+        <v>242</v>
+      </c>
+      <c r="M13">
+        <v>242</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>240</v>
-      </c>
-      <c r="M13">
-        <v>240</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1320,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5818181818181818</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1338,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K14">
-        <v>0.4614754098360656</v>
+        <v>0.4573770491803278</v>
       </c>
       <c r="L14">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M14">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1362,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1370,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5714285714285714</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1388,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K15">
-        <v>0.3516819571865443</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L15">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1412,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>212</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1420,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1438,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>0.3313253012048193</v>
+        <v>0.363914373088685</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1462,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>111</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1470,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5555555555555556</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1488,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K17">
-        <v>0.3207547169811321</v>
+        <v>0.3313253012048193</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1512,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1520,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5142857142857142</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1538,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K18">
-        <v>0.3166666666666667</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1562,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1570,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5101449275362319</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C19">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1588,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K19">
-        <v>0.3121693121693122</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L19">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1612,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1620,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1638,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K20">
-        <v>0.2711864406779661</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1662,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1670,13 +1655,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4814814814814815</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1688,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K21">
-        <v>0.25</v>
+        <v>0.2421875</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1712,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1720,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4473684210526316</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1738,31 +1723,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K22">
-        <v>0.1973684210526316</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>61</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1770,13 +1755,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4096385542168675</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1788,31 +1773,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K23">
-        <v>0.1888111888111888</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1820,13 +1805,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1838,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K24">
-        <v>0.1881720430107527</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1862,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1870,13 +1855,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3937007874015748</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1888,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K25">
-        <v>0.1726907630522088</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1912,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>206</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1920,13 +1905,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3809523809523809</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1938,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K26">
-        <v>0.1454864154250657</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L26">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1962,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>975</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1970,13 +1955,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3789473684210526</v>
+        <v>0.3671875</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1988,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K27">
-        <v>0.144</v>
+        <v>0.152</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2012,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2020,13 +2005,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3720930232558139</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2038,31 +2023,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K28">
-        <v>0.1428571428571428</v>
+        <v>0.1350877192982456</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>108</v>
+        <v>986</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2070,13 +2055,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3707865168539326</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2088,19 +2073,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K29">
-        <v>0.07754010695187166</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2112,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>345</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2120,13 +2105,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3673469387755102</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2138,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K30">
-        <v>0.06748864373783257</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L30">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2162,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1437</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2170,13 +2155,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3666666666666666</v>
+        <v>0.3125</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2188,31 +2173,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K31">
-        <v>0.06406685236768803</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>336</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2220,13 +2205,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.359375</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2238,19 +2223,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K32">
-        <v>0.0622568093385214</v>
+        <v>0.07520891364902507</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2262,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>241</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2270,13 +2255,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3507109004739337</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C33">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2288,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K33">
-        <v>0.05862068965517241</v>
+        <v>0.07392996108949416</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2312,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2320,13 +2305,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3492063492063492</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2338,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K34">
-        <v>0.04938271604938271</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="L34">
         <v>16</v>
@@ -2362,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2370,13 +2355,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.34375</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C35">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D35">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2388,31 +2373,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K35">
-        <v>0.04</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>720</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2420,13 +2405,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3272727272727273</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2438,31 +2423,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K36">
-        <v>0.02272727272727273</v>
+        <v>0.036</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>688</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2470,13 +2455,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2777777777777778</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2488,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>39</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2496,13 +2481,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2574257425742574</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C38">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2514,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>150</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2522,13 +2507,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2463768115942029</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2540,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>52</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2548,13 +2533,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2388059701492537</v>
+        <v>0.175</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2566,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>51</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2574,13 +2559,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2319587628865979</v>
+        <v>0.1695402298850575</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2592,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>149</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2600,13 +2585,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2244897959183673</v>
+        <v>0.1691394658753709</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2618,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>76</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2626,13 +2611,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2051282051282051</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2644,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>93</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2652,13 +2637,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1847826086956522</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C44">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2670,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>225</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2678,13 +2663,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1772151898734177</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="C45">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2696,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>260</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2704,25 +2689,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.165</v>
+        <v>0.1280353200883002</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>167</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2730,13 +2715,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1571428571428571</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2748,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>118</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2756,13 +2741,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1483679525222552</v>
+        <v>0.1171875</v>
       </c>
       <c r="C48">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2774,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>574</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2782,13 +2767,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1360759493670886</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="C49">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2800,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>273</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2808,13 +2793,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1355932203389831</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2826,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>102</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2834,13 +2819,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1350574712643678</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C51">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2852,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>301</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2860,13 +2845,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.13215859030837</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="C52">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2878,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>394</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2886,13 +2871,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1308411214953271</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2904,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2912,13 +2897,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1273885350318471</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2930,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>137</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2938,25 +2923,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1169354838709677</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C55">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2964,25 +2949,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1123595505617977</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>237</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2990,13 +2975,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.09424083769633508</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3008,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>173</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3016,13 +3001,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.09289617486338798</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3034,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>166</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3042,25 +3027,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08648648648648649</v>
+        <v>0.05766062602965404</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E59">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>169</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3068,13 +3053,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.07692307692307693</v>
+        <v>0.05734767025089606</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>0.06</v>
@@ -3086,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>180</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3094,25 +3079,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07413509060955518</v>
+        <v>0.0430379746835443</v>
       </c>
       <c r="C61">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E61">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="F61">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>562</v>
+        <v>756</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3120,25 +3105,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.07397260273972603</v>
+        <v>0.03738317757009346</v>
       </c>
       <c r="C62">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>338</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3146,155 +3131,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.07062146892655367</v>
+        <v>0.03522205206738132</v>
       </c>
       <c r="C63">
+        <v>23</v>
+      </c>
+      <c r="D63">
         <v>25</v>
       </c>
-      <c r="D63">
-        <v>26</v>
-      </c>
       <c r="E63">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F63">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.0645879732739421</v>
-      </c>
-      <c r="C64">
-        <v>29</v>
-      </c>
-      <c r="D64">
-        <v>29</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.04746835443037975</v>
-      </c>
-      <c r="C65">
-        <v>15</v>
-      </c>
-      <c r="D65">
-        <v>16</v>
-      </c>
-      <c r="E65">
-        <v>0.06</v>
-      </c>
-      <c r="F65">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.04629629629629629</v>
-      </c>
-      <c r="C66">
-        <v>20</v>
-      </c>
-      <c r="D66">
-        <v>22</v>
-      </c>
-      <c r="E66">
-        <v>0.09</v>
-      </c>
-      <c r="F66">
-        <v>0.91</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.03981623277182236</v>
-      </c>
-      <c r="C67">
-        <v>26</v>
-      </c>
-      <c r="D67">
-        <v>28</v>
-      </c>
-      <c r="E67">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F67">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.03422053231939164</v>
-      </c>
-      <c r="C68">
-        <v>27</v>
-      </c>
-      <c r="D68">
-        <v>32</v>
-      </c>
-      <c r="E68">
-        <v>0.16</v>
-      </c>
-      <c r="F68">
-        <v>0.84</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>762</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
